--- a/biology/Zoologie/Cophyla_karenae/Cophyla_karenae.xlsx
+++ b/biology/Zoologie/Cophyla_karenae/Cophyla_karenae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophyla karenae est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophyla karenae est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région Atsinanana à Madagascar[1]. Elle se rencontre dans la réserve naturelle intégrale de Betampona entre 250 et 550 m d'altitude[2].
-Elle vit sur les feuilles de Pandanus et Crinum près des cours d'eau[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région Atsinanana à Madagascar. Elle se rencontre dans la réserve naturelle intégrale de Betampona entre 250 et 550 m d'altitude.
+Elle vit sur les feuilles de Pandanus et Crinum près des cours d'eau.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 16,1 à 17,4 mm et les femelles de 16,7 à 18,3 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 16,1 à 17,4 mm et les femelles de 16,7 à 18,3 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karen L. M. Freeman[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Karen L. M. Freeman.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rosa, Crottini, Noel, Rabibisoa, Raxworthy &amp; Andreone, 2014 : A new phytotelmic species of Platypelis (Microhylidae: Cophylinae) from the Betampona Reserve, eastern Madagascar. Salamandra, vol. 50, no 4, p. 201–214.</t>
         </is>
